--- a/Bug-reports.Aliexpress.xlsx
+++ b/Bug-reports.Aliexpress.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albina\Test-artifacts.git\Test-artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737878D1-585B-45F5-9C23-099851FB846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Баг-репорты" sheetId="1" r:id="rId4"/>
+    <sheet name="Баг-репорты" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -78,23 +87,37 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Предусловия:</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 Открыто веб-приложение </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://aliexpress.ru</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 
 Пользователь не аутентифицирован в системе</t>
     </r>
@@ -102,16 +125,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Шаги: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 1. Открыть карточку товара
@@ -125,18 +150,27 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Фактический результат:</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> В счетчике иконки корзины отображается: "0"
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://prnt.sc/ZkGbdmb15kFD</t>
     </r>
@@ -144,16 +178,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Ожидаемый результат:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> В счетчике иконки корзины отображается: "Х", где Х - количество товаров в корзине</t>
     </r>
@@ -180,23 +216,37 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Предусловия:</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 Открыто веб-приложение </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://aliexpress.ru</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 
 Пользователь не аутентифицирован в системе</t>
     </r>
@@ -204,16 +254,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Шаги: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 1. Перейти во вкладку "Все категории"
@@ -224,21 +276,25 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Фактический результат: </t>
     </r>
     <r>
       <rPr>
-        <b val="0"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">у категории "Безопасность и защита" отображается битая иконка
 </t>
     </r>
     <r>
       <rPr>
-        <b val="0"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://prnt.sc/B2UdDJcl_V3m</t>
     </r>
@@ -247,18 +303,27 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Ожидаемый результат:</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> у категории "Безопасность и защита" отображается такая же иконка, если не выбирать данную категорию
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://prnt.sc/AG-u7AAzOJTc</t>
     </r>
@@ -280,23 +345,37 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Предусловия:</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
 Открыто веб-приложение </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://aliexpress.ru</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 
 Пользователь не аутентифицирован в системе</t>
     </r>
@@ -304,16 +383,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Шаги: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 1. Открыть страницу регистрации
@@ -326,21 +407,25 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Фактический результат: </t>
     </r>
     <r>
       <rPr>
-        <b val="0"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">в плашке о валидации пароля рядом с текстом "Содержит цифры, буквы или знаки" отображается галочка, кнопка "Зарегистрироваться" активна (при нажатии на нее пользователь регистрируется в системе)
 </t>
     </r>
     <r>
       <rPr>
-        <b val="0"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://prnt.sc/WiHJ6O6Vv3iW </t>
     </r>
@@ -349,39 +434,57 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Ожидаемый результат:</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> в плашке о валидации пароля рядом с текстом "Содержит цифры, буквы или знаки" отображается крестик, кнопка "Зарегистрироваться" задизейблена
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://prnt.sc/gAZtnHTjS_Aj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <u/>
-      </rPr>
-      <t>https://prnt.sc/gAZtnHTjS_Aj</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://prnt.sc/WiHJ6O6Vv3iW
 https://prnt.sc/gAZtnHTjS_Aj</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -390,53 +493,90 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -444,7 +584,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -454,56 +594,69 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -693,24 +846,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.38"/>
-    <col customWidth="1" min="2" max="2" width="103.0"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +877,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -728,7 +886,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,7 +895,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -746,7 +904,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -755,7 +913,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -764,7 +922,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -773,7 +931,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -782,7 +940,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -791,8 +949,8 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -800,31 +958,35 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -833,17 +995,17 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +1014,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -861,7 +1023,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -870,7 +1032,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,7 +1041,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,7 +1050,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,7 +1059,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -906,7 +1068,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -915,7 +1077,7 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -924,8 +1086,8 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -933,31 +1095,35 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -966,17 +1132,17 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -985,7 +1151,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -994,7 +1160,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1169,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1178,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1021,7 +1187,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1196,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -1039,7 +1205,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +1214,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -1057,8 +1223,8 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1066,31 +1232,35 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
       <c r="B45" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
       <c r="B47" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
       <c r="B48" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1269,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1111,17 +1281,17 @@
     <mergeCell ref="A44:A48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B11"/>
-    <hyperlink r:id="rId2" ref="B13"/>
-    <hyperlink r:id="rId3" ref="B15"/>
-    <hyperlink r:id="rId4" ref="B28"/>
-    <hyperlink r:id="rId5" ref="B30"/>
-    <hyperlink r:id="rId6" ref="B31"/>
-    <hyperlink r:id="rId7" ref="B45"/>
-    <hyperlink r:id="rId8" ref="B47"/>
-    <hyperlink r:id="rId9" ref="B48"/>
-    <hyperlink r:id="rId10" ref="B49"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B45" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B47" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B48" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B49" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>